--- a/data/lib_9901MEX.xlsx
+++ b/data/lib_9901MEX.xlsx
@@ -868,9 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F321"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1168,7 +1166,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1182,7 +1180,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1196,7 +1194,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1219,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -1233,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
@@ -1261,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1376,7 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1401,12 +1399,12 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1429,12 +1427,12 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1457,12 +1455,12 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1485,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
@@ -1723,12 +1721,12 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1742,7 +1740,7 @@
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1751,12 +1749,12 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1765,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
@@ -1798,7 +1796,7 @@
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1821,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1880,7 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -1905,12 +1903,12 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1933,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2216,7 @@
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2255,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
@@ -2283,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
@@ -2325,12 +2323,12 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2372,7 +2370,7 @@
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -2568,7 +2566,7 @@
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -2577,12 +2575,12 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -2605,12 +2603,12 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2633,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.25">
@@ -2652,7 +2650,7 @@
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>4</v>
@@ -2661,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.25">
@@ -2675,12 +2673,12 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2703,12 +2701,12 @@
         <v>3</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -2731,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.25">
@@ -2750,7 +2748,7 @@
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -2792,7 +2790,7 @@
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -2806,7 +2804,7 @@
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -2843,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.25">
@@ -2885,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.25">
@@ -2913,12 +2911,12 @@
         <v>5</v>
       </c>
       <c r="F145">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -2960,7 +2958,7 @@
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -2974,7 +2972,7 @@
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3011,7 +3009,7 @@
         <v>3</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
@@ -3053,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
@@ -3221,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.25">
@@ -3240,7 +3238,7 @@
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3254,7 +3252,7 @@
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -3282,7 +3280,7 @@
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -3333,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.25">
@@ -3361,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.25">
@@ -3459,12 +3457,12 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -3515,12 +3513,12 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -3800,7 +3798,7 @@
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -3837,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.25">
@@ -3851,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.25">
@@ -3870,7 +3868,7 @@
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -3893,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.25">
@@ -3912,7 +3910,7 @@
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -3926,7 +3924,7 @@
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -3963,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="F220">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.25">
@@ -3977,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.25">
@@ -4033,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.25">
@@ -4052,7 +4050,7 @@
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4066,7 +4064,7 @@
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4122,7 +4120,7 @@
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -4145,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.25">
@@ -4159,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.25">
@@ -4201,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.25">
@@ -4220,7 +4218,7 @@
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -4234,7 +4232,7 @@
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -4850,7 +4848,7 @@
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -4859,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="F284">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
@@ -4878,7 +4876,7 @@
     </row>
     <row r="286" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4901,12 +4899,12 @@
         <v>3</v>
       </c>
       <c r="F287">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C288">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -4929,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="3:6" x14ac:dyDescent="0.25">
@@ -4943,12 +4941,12 @@
         <v>0</v>
       </c>
       <c r="F290">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -4957,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="F291">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="3:6" x14ac:dyDescent="0.25">
@@ -4976,7 +4974,7 @@
     </row>
     <row r="293" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D293">
         <v>4</v>
@@ -4990,7 +4988,7 @@
     </row>
     <row r="294" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -5013,12 +5011,12 @@
         <v>2</v>
       </c>
       <c r="F295">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C296">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -5041,12 +5039,12 @@
         <v>1</v>
       </c>
       <c r="F297">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C298">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -5069,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="F299">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="3:6" x14ac:dyDescent="0.25">
@@ -5158,7 +5156,7 @@
     </row>
     <row r="306" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C306">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -5181,12 +5179,12 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C308">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -5209,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="3:6" x14ac:dyDescent="0.25">
@@ -5251,12 +5249,12 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D313">
         <v>3</v>
